--- a/downloaded_files/EECS405_Lecture-35323.xlsx
+++ b/downloaded_files/EECS405_Lecture-35323.xlsx
@@ -93,7 +93,7 @@
     <x:t>عمر محمد رءوف شاذلى</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Mohamed Raouf</x:t>
+    <x:t>Omar Mohamed Raouf Shazly</x:t>
   </x:si>
   <x:si>
     <x:t>1210411</x:t>
